--- a/решение С#.xlsx
+++ b/решение С#.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1035442\OneDrive - Syngenta\Рабочий стол\Geek Brains\C# Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA5070C-959C-4556-84CD-4A4001180287}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91706F85-9D4D-406F-A518-50AEBF1558EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{C4871C03-24D8-4764-B569-A8F27D0CFEA3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>02 Написать программу которая на вход принимает два числа и выводит, какое число большее, а какое меньшее.</t>
   </si>
@@ -407,6 +407,38 @@
     System.Console.WriteLine(message);
     int result = Convert.ToInt32(Console.ReadLine());
     return result;
+}</t>
+  </si>
+  <si>
+    <t>using System;
+public class Answer
+{
+    static bool IsPalindrome(int number){
+      // Введите свое решение ниже
+      int digitCount = (int)Math.Log10(number) + 1;
+    if (digitCount !=5) Console.WriteLine("Число не пятизначное");
+    int diveder = 10000;
+    for (int i = 1; i &lt; 2; i++)
+    {
+        if (number/diveder != number%10) return false;
+        number /= 10;
+        diveder /=10;
+    }
+    return true;
+    }
+  // Не удаляйте и не меняйте метод Main! 
+      static public void Main(string[] args) {
+        int number;
+        if (args.Length &gt;= 1) {
+            number = int.Parse(args[0]);
+        } else {
+           // Здесь вы можете поменять значения для отправки кода на Выполнение
+            number = 64546;
+        }
+        // Не удаляйте строки ниже
+        bool result = IsPalindrome(number);
+        System.Console.WriteLine($"{result}");
+    }
 }</t>
   </si>
 </sst>
@@ -804,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C62B4D-52C8-429E-A392-6844393624AA}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="B23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,7 +1139,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1115,7 +1147,9 @@
       <c r="B21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="8"/>
+      <c r="C21" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1242,5 +1276,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <customProperties>
+    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId2"/>
+  </customProperties>
 </worksheet>
 </file>
--- a/решение С#.xlsx
+++ b/решение С#.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1035442\OneDrive - Syngenta\Рабочий стол\Geek Brains\C# Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91706F85-9D4D-406F-A518-50AEBF1558EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3EE5A4-3004-465F-997C-CDECB66295E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{C4871C03-24D8-4764-B569-A8F27D0CFEA3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
   <si>
     <t>02 Написать программу которая на вход принимает два числа и выводит, какое число большее, а какое меньшее.</t>
   </si>
@@ -242,9 +242,6 @@
     return result;
 }
 System.Console.WriteLine($"Sum of all natural numbers from 1 to your entered number {userNumber} is: {Sum(userNumber)}");</t>
-  </si>
-  <si>
-    <t>Сумма всех натуральных чисел от 1го до числа введеного пользователем</t>
   </si>
   <si>
     <t>24. Напишите программу, которая принимает на вход число (А) и выдаёт сумму чисел от 1 до А.
@@ -440,6 +437,458 @@
         System.Console.WriteLine($"{result}");
     }
 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+38. Напишите программу для работы с массивом вещественных чисел.
+Аргументы, передаваемые в метод/функцию:
+'3.17, 8.94, 2.36, 5.72, 0.85'
+На выходе:
+Массив:
+3.17    8.94    2.36    5.72    0.85    
+Разность между максимальным и минимальным элементом = 8.09</t>
+  </si>
+  <si>
+    <t>37. Найдите произведение пар чисел в одномерном массиве. 
+Парой считаем первый и последний элемент, второй и предпоследний и т.д. 
+Результат запишите в новом массиве.
+[1 2 3 4 5] -&gt; 5 8 3
+[6 7 3 6] -&gt; 36 21</t>
+  </si>
+  <si>
+    <t>36. Напишите программу, которая находит сумму элементов с нечетными индексами в одномерном массиве целых чисел и выводит результат на экран.
+При выводе элементы массива должны быть разделены символом табуляции "\t".
+Аргументы, передаваемые в метод/функцию:
+'18, 76, 11'
+На выходе:
+18      76      11  
+Сумма нечетных элементов: 76</t>
+  </si>
+  <si>
+    <t>35. Задайте одномерный массив из 123 случайных чисел. Найдите количество элементов массива, 
+значения которых лежат в отрезке [10,99]. 
+Пример для массива из 5, а не 123 элементов. В своем решении 
+сделайте для 123
+[5, 18, 123, 6, 2] -&gt; 1
+[1, 2, 3, 6, 2] -&gt; 0
+[10, 11, 12, 13, 14] -&gt; 5</t>
+  </si>
+  <si>
+    <t>34. Напишите программу, которая подсчитывает количество четных элементов в массиве целых положительных трехзначных чисел и выводит результат на экран.
+Аргументы, передаваемые в метод/функцию:
+'124, 378, 593, 821, 456'
+Массив:
+124     378     593     821     456 
+Количество четных элементов: 3</t>
+  </si>
+  <si>
+    <t>33. Задайте массив. Напишите программу, которая определяет, 
+присутствует ли заданное число в массиве.
+4; массив [6, 7, 19, 345, 3] -&gt; нет
+-3; массив [6, 7, 19, 345, 3] -&gt; да</t>
+  </si>
+  <si>
+    <t>31. Задайте массив из 12 элементов, заполненный случайными числами из промежутка [-9, 9]. 
+Найдите сумму отрицательных и положительных элементов массива.
+Например, в массиве [3,9,-8,1,0,-7,2,-1,8,-3,-1,6] 
+сумма положительных чисел равна 29, сумма отрицательных равна -20.</t>
+  </si>
+  <si>
+    <t>32. Напишите программу замена элементов массива: 
+положительные элементы замените на соответствующие отрицательные, и наоборот.
+[-4, -8, 8, 2] -&gt; [4, 8, -8, -2]</t>
+  </si>
+  <si>
+    <t>Задача 39: Напишите программу, которая перевернёт одномерный
+массив (последний элемент будет на первом месте, а первый - на
+последнем и т.д.)
+[1 2 3 4 5] -&gt; [5 4 3 2 1]
+[6 7 3 6] -&gt; [6 3 7 6]</t>
+  </si>
+  <si>
+    <t>Задача 40: Напишите программу, которая принимает на вход три числа и
+проверяет, может ли существовать треугольник с сторонами такой длины.
+Теорема о неравенстве треугольника: каждая сторона треугольника
+меньше суммы двух других сторон.</t>
+  </si>
+  <si>
+    <t>Задача 42: Напишите программу, которая будет преобразовывать
+десятичное число в двоичное.
+45 -&gt; 101101
+3 -&gt; 11
+2 -&gt; 10</t>
+  </si>
+  <si>
+    <t>Задача 44: Не используя рекурсию, выведите первые N чисел
+Фибоначчи. Первые два числа Фибоначчи: 0 и 1.
+Если N = 5 -&gt; 0 1 1 2 3
+Если N = 3 -&gt; 0 1 1
+Если N = 7 -&gt; 0 1 1 2 3 5 8</t>
+  </si>
+  <si>
+    <t>Задача 45: Напишите программу, которая будет создавать копию
+заданного массива с помощью поэлементного копирования</t>
+  </si>
+  <si>
+    <t>Задача 41: Пользователь вводит с клавиатуры M чисел.
+Посчитайте, сколько чисел больше 0 ввёл пользователь.</t>
+  </si>
+  <si>
+    <t>Задача 43. Напишите программу, которая найдёт точку
+пересечения двух прямых, заданных уравнениями y = k1 * x +
+b1, y = k2 * x + b2; значения b1, k1, b2 и k2 задаются
+пользователем.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/*
+16 Напишите программу, которая принимает на вход два числа и проверяет, является ли одно число квадратом другого.
+*/
+using System;
+Console.Clear();
+int TakeEntNum(string message)
+{
+    System.Console.WriteLine(message);
+    int result = Convert.ToInt32(Console.ReadLine());
+    return result;
+}
+int userNumber1 = TakeEntNum("Please, enter first number: ");
+int userNumber2 = TakeEntNum("Please, enter second number: ");
+bool CheckSquare(int a, int b)
+{
+    if (Math.Pow(a, 2) == b || Math.Pow (b, 2) == a) return true;
+    else return false;
+}
+System.Console.WriteLine(CheckSquare(userNumber1, userNumber2));
+</t>
+  </si>
+  <si>
+    <t>/*
+17 Напишите программу, которая принимает на вход координаты точки (X и Y), причём X ≠ 0 и Y ≠ 0 и выдаёт номер четверти плоскости, в которой находится эта точка.
+*/
+using System;
+Console.Clear();
+string CheckTheQuarter (int[] a)
+{
+    string result = "";
+    if(a[0] &gt; 0 &amp;&amp; a[1] &gt; 0) result =  "Your point in first quarter.";
+    if(a[0] &gt; 0 &amp;&amp; a[1] &lt; 0) result =  "Your point in fourth quarter.";
+    if(a[0] &lt; 0 &amp;&amp; a[1] &gt; 0) result =  "Your point in third quarter.";
+    if(a[0] &lt; 0 &amp;&amp; a[1] &lt; 0) result =  "Your point in second quarter.";
+    return result;
+}
+int[] inputA = TakeEntCoordinate("Enter Coordinate of first point splited by space button (x y):");
+int[] TakeEntCoordinate(string message)
+{
+    System.Console.WriteLine(message);
+    string coorLine = Convert.ToString(Console.ReadLine());
+    var strings1 = coorLine.Split(' ');
+    int[] result = Array.ConvertAll(strings1, s =&gt; int.Parse(s));
+    return result;
+}
+System.Console.WriteLine(CheckTheQuarter(inputA));</t>
+  </si>
+  <si>
+    <t>/*
+18 Напишите программу, которая по заданному номеру четверти, показывает диапазон возможных координат точек в этой четверти (x и y).
+*/
+using System;
+Console.Clear();
+string CheckTheQuarterPointRange (int a)
+{
+    string result = "";
+    if(a == 1) result =  "To place your point in first quarter coordinates should be x &gt; 0 and y &gt; 0.";
+    if(a == 2) result =  "To place your point in second quarter coordinates should be x &gt; 0 and y &lt; 0.";
+    if(a == 3) result =  "To place your point in third quarter coordinates should be x &lt; 0 and y &gt; 0.";
+    if(a == 4) result =  "To place your point in fourth quarter coordinates should be x &lt; 0 and y &lt; 0.";
+    return result;
+}
+System.Console.WriteLine("Give quarter number to know point coordinate range");
+int inputA = Convert.ToInt32(Console.ReadLine());
+System.Console.WriteLine(CheckTheQuarterPointRange(inputA));</t>
+  </si>
+  <si>
+    <t>/*
+25. Напишите цикл, который принимает на вход два числа (A и B) и возводит число A в натуральную степень B.
+3, 5 -&gt; 243 (3⁵)
+2, 4 -&gt; 16
+*/
+using System;
+Console.Clear();
+double Exponentiation (int a, int b)
+{
+    double result = Math.Pow(a, b);
+    return result;
+    /*int result = 1;
+    for (int i = 0; i &lt; b; i++)
+    {
+        result *=a;
+    }
+    return result;
+    */
+} 
+int TakeEntNum(string message)
+{
+    System.Console.WriteLine(message);
+    int result = Convert.ToInt32(Console.ReadLine());
+    return result;
+}
+int userNumber1 = TakeEntNum("Enter a number to exponentiate: ");
+int userNumber2 = TakeEntNum("Enter the exponent of the number: ");
+System.Console.WriteLine(Exponentiation(userNumber1, userNumber2));</t>
+  </si>
+  <si>
+    <t>/*
+26. Напишите программу, которая принимает на вход число и выдаёт количество цифр в числе.
+456 -&gt; 3
+78 -&gt; 2
+89126 -&gt; 5
+*/
+using System;
+Console.Clear();
+System.Console.WriteLine("Please, enter the number: ");
+int userNumber = Convert.ToInt32(Console.ReadLine());
+int numDg (int a)
+    {
+        int count = 0;
+        for (int i = a; i &gt; 0; i /= 10)
+            {
+                count ++;
+            }
+        return count;
+    }
+System.Console.WriteLine($"Number of digits in your entered number {userNumber}: {numDg(userNumber)}");</t>
+  </si>
+  <si>
+    <t>/*
+27. Напишите программу, которая принимает на вход число и выдаёт сумму цифр в числе.
+452 -&gt; 11
+82 -&gt; 10
+9012 -&gt; 12
+*/
+using System;
+Console.Clear();
+int takeEntNum(string message)
+{
+    System.Console.WriteLine(message);
+    int result = Convert.ToInt32(Console.ReadLine());
+    return result;
+}
+int SumOfDigits (int a)
+{
+    int result = 0;
+    for (int i = a; i &gt; 0; i/=10)
+    {
+        result = result + i%10;
+    }
+    /*
+    int digitCount = (int)Math.Log10(a) + 1;
+    for (int i = 0; i &lt; digitCount; i++)
+    {
+        result += a%10;
+    }
+    */
+    return result;
+}
+int userNumber1 = takeEntNum("Enter number to count sum of all digits in them: ");
+System.Console.WriteLine(SumOfDigits(userNumber1));</t>
+  </si>
+  <si>
+    <t>/*
+28. Напишите программу, которая принимает на вход число N и выдаёт произведение чисел от 1 до N.
+4 -&gt; 24
+5 -&gt; 120
+*/
+using System;
+Console.Clear();
+int multiplier(int a)
+{
+    int result = 1;
+    for (int i = 1; i &lt;= a; i++)
+    {
+        result *= i;
+    }
+    return result;
+}
+System.Console.WriteLine("Please, enter the number: ");
+int userNumber = Convert.ToInt32(Console.ReadLine());
+System.Console.WriteLine($"Factorial of intered number {userNumber}: {multiplier(userNumber)}");</t>
+  </si>
+  <si>
+    <t>/*
+29. Напишите программу, которая задаёт массив из 8 элементов и выводит их на экран.
+1, 2, 5, 7, 19 -&gt; [1, 2, 5, 7, 19] 
+6, 1, 33 -&gt; [6, 1, 33] 
+*/
+using System;
+Console.Clear();
+int TakeEntNum(string message)
+{
+    System.Console.WriteLine(message);
+    int result = Convert.ToInt32(Console.ReadLine());
+    return result;
+}
+int[] randomArray(int start, int end, int lenght)
+{
+    int[] array = new int[lenght];
+    for (int i = 0; i &lt; lenght; i++)
+    {
+        array[i] = new Random().Next(start, end + 1);
+    }
+    return array;
+}
+void PrintArray(int[] array)
+{
+    Console.ForegroundColor = ConsoleColor.Blue;
+    System.Console.Write("[");
+    for (int i = 0; i &lt; array.Length; i++)
+    {
+        System.Console.Write(array[i]);
+        if (i &lt; array.Length - 1)
+            System.Console.Write(", ");
+    }
+    System.Console.WriteLine("]");
+}
+int userArraySize = TakeEntNum("Please, enter array size:");
+int userArrayStart = TakeEntNum("Please, enter array start number range:");
+int userArrayEnd = TakeEntNum("Please, enter array end number range:");
+int[] userArray = randomArray(userArrayStart, userArrayEnd, userArraySize);
+PrintArray(userArray);</t>
+  </si>
+  <si>
+    <t>/*
+30. Напишите программу, которая выводит массив из 8 элементов, заполненный нулями и единицами в случайном порядке.
+*/
+using System;
+Console.Clear();
+int[] GetRandArray(int size)
+{
+    int[] array = new int[size];
+    for (int i = 0; i &lt; size; i++)
+    {
+        array[i]= new Random().Next(0, 2);
+    }
+    return array;
+}
+void PrintArray(int[] arr)
+{
+    for (int i = 0; i &lt; arr.Length; i++)
+    {
+        System.Console.Write($"{arr[i]}, ");
+    }
+}
+int[] userArray = GetRandArray(9);
+PrintArray(userArray);</t>
+  </si>
+  <si>
+    <t>/*
+32. Напишите программу замена элементов массива: положительные элементы замените на соответствующие отрицательные, и наоборот.
+[-4, -8, 8, 2] -&gt; [4, 8, -8, -2]
+*/
+using System;
+Console.Clear();
+int[] GetRandomArray(int start, int end, int lenght)
+{
+    int[] array = new int[lenght];
+    for (int i = 0; i &lt; lenght; i++)
+    {
+        array[i] = new Random().Next(start, end + 1);
+    }
+    return array;
+}
+void PrintArray(int[] array)
+{
+    System.Console.Write("[");
+    for (int i = 0; i &lt; array.Length; i++)
+    {
+        System.Console.Write(array[i]);
+        if (i &lt; array.Length - 1)
+            System.Console.Write(", ");
+    }
+    System.Console.WriteLine("]");
+}
+int[] ChangePosAndNegArray(int[] array)
+{
+    int[] result = new int[array.Length];
+    for (int i = 0; i &lt; array.Length; i++)
+    {
+        result[i] = array[i] * -1;
+    }
+    return result;
+}
+int TakeEntNum(string message)
+{
+    System.Console.WriteLine(message);
+    int result = Convert.ToInt32(Console.ReadLine());
+    return result;
+}
+int userArraySize = TakeEntNum("Please, enter array size:");
+int userArrayStart = TakeEntNum("Please, enter array start number range:");
+int userArrayEnd = TakeEntNum("Please, enter array end number range:");
+int[] userArray = GetRandomArray(userArrayStart, userArrayEnd, userArraySize);
+int[] userChangedArray = ChangePosAndNegArray(userArray);
+PrintArray(userArray);
+PrintArray(userChangedArray);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/*
+33. Задайте массив. Напишите программу, 
+которая определяет, присутствует ли заданное число в массиве.
+4; массив [6, 7, 19, 345, 3] -&gt; нет
+-3; массив [6, 7, 19, 345, 3] -&gt; да
+*/
+using System;
+Console.Clear();
+int[] GetRandomArray(int start, int end, int lenght)
+{
+    int[] array = new int[lenght];
+    for (int i = 0; i &lt; lenght; i++)
+    {
+        array[i] = new Random().Next(start, end + 1);
+    }
+    return array;
+}
+void PrintArray(int[] array)
+{
+    System.Console.Write("[");
+    for (int i = 0; i &lt; array.Length; i++)
+    {
+        System.Console.Write(array[i]);
+        if (i &lt; array.Length - 1)
+            System.Console.Write(", ");
+    }
+    System.Console.WriteLine("]");
+}
+int[] ChangePosAndNegArray(int[] array)
+{
+    int[] result = new int[array.Length];
+    for (int i = 0; i &lt; array.Length; i++)
+    {
+        result[i] = array[i] * -1;
+    }
+    return result;
+}
+int TakeEntNum(string message)
+{
+    System.Console.WriteLine(message);
+    int result = Convert.ToInt32(Console.ReadLine());
+    return result;
+}
+bool CheckNumberInArray(int[] array, int number)
+{
+    for (int i = 0; i &lt; array.Length; i++)
+    {
+        if (array[i] == number) return true;
+    }
+    return false;
+}
+int userArraySize = TakeEntNum("Please, enter array size:");
+int userArrayStart = TakeEntNum("Please, enter array start number range:");
+int userArrayEnd = TakeEntNum("Please, enter array end number range:");
+int userSearchNumber = TakeEntNum("Please, give number for search in array: ");
+int[] userArray = GetRandomArray(userArrayStart, userArrayEnd, userArraySize);
+PrintArray(userArray);
+System.Console.WriteLine($"Is searching number {userSearchNumber} available in random array: {CheckNumberInArray(userArray, userSearchNumber)}");
+</t>
   </si>
 </sst>
 </file>
@@ -490,7 +939,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -519,6 +968,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -834,450 +1286,775 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C62B4D-52C8-429E-A392-6844393624AA}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.5703125" customWidth="1"/>
-    <col min="3" max="3" width="97.7109375" style="10" customWidth="1"/>
-    <col min="4" max="5" width="36" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="44.5703125" customWidth="1"/>
+    <col min="4" max="4" width="188.42578125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="375" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" ht="345" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <f t="shared" ref="A3:A25" si="0">A2+1</f>
+        <f t="shared" ref="A3:B25" si="0">A2+1</f>
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6">
+        <f>B2+1</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="300" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" ht="285" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <f t="shared" si="0"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" ht="255" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <f t="shared" si="0"/>
+      <c r="D13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" ht="255" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <f t="shared" si="0"/>
+      <c r="D14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="6">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="315" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <f t="shared" si="0"/>
+      <c r="D15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <f t="shared" si="0"/>
+      <c r="D16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <f t="shared" si="0"/>
+      <c r="D17" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="390" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" ht="225" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <f t="shared" si="0"/>
+      <c r="D18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="6">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" ht="285" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
+      <c r="B20" s="6">
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="6">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="2"/>
+      <c r="D22" s="8"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="6">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="2"/>
+      <c r="D23" s="8"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="6">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="2"/>
+      <c r="D24" s="8"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="6">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="2"/>
+      <c r="D25" s="8"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" ht="270" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>24</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="6">
+        <f t="shared" ref="B26:B62" si="1">B25+1</f>
+        <v>24</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="D26" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="6">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="D27" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="390" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="6">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="D28" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="6">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="D29" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="345" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="6">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="D30" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>28</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="6">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="D31" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="6">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="D32" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="6">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="B34" s="6">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="B35" s="6">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="B36" s="6">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="B37" s="6">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="B38" s="6">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="B39" s="6">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="B40" s="6">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="B41" s="6">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="B42" s="6">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B43" s="6">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="B44" s="6">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="B45" s="6">
+        <f t="shared" si="1"/>
         <v>43</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="B46" s="6">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B47" s="6">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="6">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="6">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="6">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="6">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="6">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="6">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="6">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="6">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="6">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="6">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="6">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="6">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="6">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="6">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="6">
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <customProperties>
-    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId2"/>
-  </customProperties>
 </worksheet>
 </file>
--- a/решение С#.xlsx
+++ b/решение С#.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1035442\OneDrive - Syngenta\Рабочий стол\Geek Brains\C# Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3EE5A4-3004-465F-997C-CDECB66295E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F2DAA0-2446-4037-9798-8013DB9BBB33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{C4871C03-24D8-4764-B569-A8F27D0CFEA3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
   <si>
     <t>02 Написать программу которая на вход принимает два числа и выводит, какое число большее, а какое меньшее.</t>
   </si>
@@ -1288,8 +1288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C62B4D-52C8-429E-A392-6844393624AA}">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1855,13 +1855,16 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B36" s="6">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>56</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="150" x14ac:dyDescent="0.25">

--- a/решение С#.xlsx
+++ b/решение С#.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1035442\OneDrive - Syngenta\Рабочий стол\Geek Brains\C# Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F2DAA0-2446-4037-9798-8013DB9BBB33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98C9A430-18C3-49B9-A1E9-E5519D2A5E75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{C4871C03-24D8-4764-B569-A8F27D0CFEA3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{C4871C03-24D8-4764-B569-A8F27D0CFEA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
   <si>
     <t>02 Написать программу которая на вход принимает два числа и выводит, какое число большее, а какое меньшее.</t>
   </si>
@@ -889,6 +890,321 @@
 PrintArray(userArray);
 System.Console.WriteLine($"Is searching number {userSearchNumber} available in random array: {CheckNumberInArray(userArray, userSearchNumber)}");
 </t>
+  </si>
+  <si>
+    <t>using System;
+public class Answer
+{
+    public static int SumOddElements(int[] array)
+    {
+        // Введите свое решение ниже
+        int result = 0;
+        for (int i = 1; i &lt; array.Length; i ++)
+        {
+            if(i%2 !=0) result = result + array[i];
+        }
+        return result;
+    }
+    public static void PrintArray(int[] array)
+    {
+        // Введите свое решение ниже
+    for (int i = 0; i &lt; array.Length; i++)
+    {
+        Console.Write(array[i]);
+        if(i&lt; array.Length - 1) Console.Write("\t");
+    }
+    System.Console.WriteLine("");
+    }
+    // Не удаляйте и не меняйте метод Main! 
+    public static void Main(string[] args)
+    {
+        int[] array;
+        if (args.Length == 0)
+        {
+            // Здесь вы можете поменять значения для отправки кода на Выполнение
+            array = new int[] { 18, 76, 11 };
+        }
+        else
+        {
+            string[] argStrings = args[0].Split(", ");
+            array = new int[argStrings.Length];
+            for (int i = 0; i &lt; argStrings.Length; i++)
+            {
+                if (int.TryParse(argStrings[i], out int number))
+                {
+                    array[i] = number;
+                }
+                else
+                {
+                    Console.WriteLine($"Ошибка при парсинге аргумента {argStrings[i]}.");
+                    return;
+                }
+            }
+        }
+        // Не удаляйте строки ниже
+        PrintArray(array);
+        int sumOdd = SumOddElements(array);
+        Console.WriteLine($"Сумма нечетных элементов: {sumOdd}");
+    }
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/*
+35. Задайте одномерный массив из 123 случайных чисел. Найдите количество элементов массива, 
+значения которых лежат в отрезке [10,99]. 
+Пример для массива из 5, а не 123 элементов. В своем решении 
+сделайте для 123
+[5, 18, 123, 6, 2] -&gt; 1
+[1, 2, 3, 6, 2] -&gt; 0
+[10, 11, 12, 13, 14] -&gt; 5
+*/
+using System;
+Console.Clear();
+int[] GetRandomArray(int start, int end, int lenght)
+{
+    int[] array = new int[lenght];
+    for (int i = 0; i &lt; lenght; i++)
+    {
+        array[i] = new Random().Next(start, end+1);
+    }
+    return array;
+}
+void PrintArray(int[] array)
+{
+    System.Console.Write("[");
+    for (int i = 0; i &lt; array.Length; i++)
+    {
+        System.Console.Write(array[i]);
+        if (i &lt; array.Length - 1)
+            System.Console.Write(", ");
+    }
+    System.Console.WriteLine("]");
+}
+int TakeEntNum(string message)
+{
+    System.Console.WriteLine(message);
+    int result = Convert.ToInt32(Console.ReadLine());
+    return result;
+}
+int SumPositiveNum (int[] array)
+{
+ int result = 0;
+ for (int i = 0; i &lt; array.Length; i++)
+ {
+    if (array[i] &gt; 0) result +=array[i];
+ }
+ return result;
+}
+int SumNegativeNum (int[] array)
+{
+ int result = 0;
+ for (int i = 0; i &lt; array.Length; i++)
+ {
+    if (array[i] &lt; 0) result +=array[i];
+ }
+ return result;
+}
+int FindNumbersInRange (int[] array, int start, int end)
+{
+    int count = 0;    
+    for (int i = 0; i &lt; array.Length; i++)
+    {
+        if(array[i] &gt; start &amp;&amp; array[i] &lt; end + 1  ) count++;
+    }
+    return count;
+}
+int userArraySize = TakeEntNum ("Please, enter array size:");
+int userArrayStart = TakeEntNum ("Please, enter array start number range:");
+int userArrayEnd =  TakeEntNum ("Please, enter array end number range:");
+int[] userArray = GetRandomArray (userArrayStart, userArrayEnd, userArraySize);
+PrintArray (userArray);
+int userRangeStartFind = TakeEntNum("Enter the start of range to find numbers in given Array: ");
+int userRangeEndFind = TakeEntNum ("Enter the start of range to find numbers in given Array: ");
+int  userRangeCountInArray = FindNumbersInRange(userArray, userRangeStartFind, userRangeEndFind);
+System.Console.WriteLine($"Counted numbers in given range in curent array: {FindNumbersInRange(userArray, userRangeStartFind, userRangeEndFind)}. ");
+ </t>
+  </si>
+  <si>
+    <t>/*
+38. Напишите программу для работы с массивом вещественных чисел.
+Аргументы, передаваемые в метод/функцию:
+'3.17, 8.94, 2.36, 5.72, 0.85'
+На выходе:
+Массив:
+3.17    8.94    2.36    5.72    0.85    
+Разность между максимальным и минимальным элементом = 8.09
+*/
+using System;
+public class Answer
+{
+    public static double FindMax(double[] array)
+    {     // Введите свое решение ниже
+        double max = array[0];
+        for (int i = 0; i &lt; array.Length; i++)
+        {
+            if (array[i] &gt; max) max = array[i];
+        }
+        return max;
+    }
+    public static double FindMin(double[] array)
+    {     // Введите свое решение ниже
+        double min = array[0];
+        for (int i = 0; i &lt; array.Length; i++)
+        {
+            if (array[i] &lt; min) min = array[i];
+        }
+        return min;
+    }
+    public static double CalcDifferenceBetweenMaxMin(double[] array)
+    {// Введите свое решение ниже
+        double max = FindMax(array);
+        double min = FindMin(array);
+        double diff = max - min;
+        return diff;
+    }
+    public static void PrintArray(double[] array)
+    {
+        for (int i = 0; i &lt; array.Length; i++)
+        {
+            Console.Write(array[i]);
+            if(i &lt; array.Length - 1) Console.Write ("\t");
+        }
+        System.Console.WriteLine("");
+    }
+    // Не удаляйте и не меняйте метод Main! 
+    public static void Main(string[] args)
+    {
+        double[] array;
+        if (args.Length == 0)
+        {
+            array = new double[] { 3, 7.4, 22.3, 2, 78 };
+        }
+        else
+        {
+            // Иначе, парсим аргументы в массив чисел
+            string[] argStrings = args[0].Split(", ");
+            array = new double[argStrings.Length];
+            for (int i = 0; i &lt; argStrings.Length; i++)
+            {
+                if (double.TryParse(argStrings[i], out double number))
+                {
+                    array[i] = number;
+                }
+                else
+                {
+                    Console.WriteLine($"Ошибка при парсинге аргумента {argStrings[i]}.");
+                    return;
+                }
+            }
+        }
+        Console.WriteLine("Массив:");
+        PrintArray(array);
+        double diff = CalcDifferenceBetweenMaxMin(array);
+        Console.WriteLine($"Разность между максимальным и минимальным элементом = {diff:f2}");
+    }
+}</t>
+  </si>
+  <si>
+    <t>/*
+21 Напишите программу, которая принимает на вход координаты двух точек и находит расстояние между ними в 3D пространстве.
+*/
+using System;
+Console.Clear();
+string TakeEntCoordinate(string message)
+{
+    System.Console.WriteLine(message);
+    string result = Convert.ToString(Console.ReadLine());
+    return result;
+}
+double DistanceBetweenPointsIn2D(int[] a, int[] b)
+{
+    double result = 0;
+    for (int i = 0; i &lt; a.Length; i++)
+    {
+        result = result + Math.Pow((a[i] - b[i]), 2);
+    }
+    return result = Math.Sqrt(result);
+}
+string inputA = TakeEntCoordinate("Enter Coordinate of first point splited by space button (x y):");
+var strings1 = inputA.Split(' ');
+int[] pointA = Array.ConvertAll(strings1, s =&gt; int.Parse(s));
+string inputB = TakeEntCoordinate("Enter Coordinate of first point splited by space button (x y):");
+var strings2 = inputB.Split(' ');
+int[] pointB = Array.ConvertAll(strings2, s =&gt; int.Parse(s));
+System.Console.WriteLine($"Distance beetween of two entered point is: {DistanceBetweenPointsIn2D(pointA, pointB)}");</t>
+  </si>
+  <si>
+    <t>/*
+21 Напишите программу, которая принимает на вход координаты двух точек и находит расстояние между ними в 3D пространстве.
+*/
+using System;
+Console.Clear();
+string TakeEntCoordinate(string message)
+{
+    System.Console.WriteLine(message);
+    string result = Convert.ToString(Console.ReadLine());
+    return result;
+}
+double DistanceBetweenPointsIn3D(int[] a, int[] b)
+{
+    double result = 0;
+    for (int i = 0; i &lt; 3; i++)
+    {
+        result = result + Math.Pow((a[i] - b[i]), 2);
+    }
+    return result = Math.Sqrt(result);
+}
+string inputA = TakeEntCoordinate("Enter Coordinate of first point splited by space button (x y z):");
+var strings1 = inputA.Split(' ');
+int[] pointA = Array.ConvertAll(strings1, s =&gt; int.Parse(s));
+string inputB = TakeEntCoordinate("Enter Coordinate of first point splited by space button (x y z):");
+var strings2 = inputB.Split(' ');
+int[] pointB = Array.ConvertAll(strings2, s =&gt; int.Parse(s));
+System.Console.WriteLine($"Distance beetween of two entered point is: {DistanceBetweenPointsIn3D(pointA, pointB)}");</t>
+  </si>
+  <si>
+    <t>/*
+22 Напишите программу, которая принимает на вход число(N) и выдаёт таблицу квадратов чисел от 1 до N.
+*/
+using System;
+Console.Clear();
+void PrintSquareNumber(int a)
+{
+    for (int i = 1; i &lt;= a; i++)
+    {
+        System.Console.WriteLine($"{i} * {i} = {Math.Pow(i,2)}");
+    }
+    }
+int TakeEntNum(string message)
+{
+    System.Console.WriteLine(message);
+    int result = Convert.ToInt32(Console.ReadLine());
+    return result;
+}
+int userNumber1 = TakeEntNum("Enter number for calculation: ");
+PrintSquareNumber(userNumber1);</t>
+  </si>
+  <si>
+    <t>/*
+23 Напишите программу, которая принимает на вход число (N) и выдаёт таблицу кубов чисел от 1 до N.
+*/
+using System;
+Console.Clear();
+void PrintSquareNumber(int a)
+{
+    for (int i = 1; i &lt;= a; i++)
+    {
+        System.Console.WriteLine($"{i} * {i} * {i}= {Math.Pow(i,3)}");
+    }
+    }
+int TakeEntNum(string message)
+{
+    System.Console.WriteLine(message);
+    int result = Convert.ToInt32(Console.ReadLine());
+    return result;
+}
+int userNumber1 = TakeEntNum("Enter number for calculation: ");
+PrintSquareNumber(userNumber1);</t>
   </si>
 </sst>
 </file>
@@ -939,7 +1255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -962,9 +1278,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1288,8 +1601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C62B4D-52C8-429E-A392-6844393624AA}">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1297,7 +1610,7 @@
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="44.5703125" customWidth="1"/>
-    <col min="4" max="4" width="188.42578125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="188.42578125" style="9" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1323,12 +1636,12 @@
       <c r="C2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="345" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f t="shared" ref="A3:B25" si="0">A2+1</f>
         <v>1</v>
@@ -1340,7 +1653,7 @@
       <c r="C3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="2"/>
@@ -1583,7 +1896,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="390" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1595,12 +1908,12 @@
       <c r="C18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="8" t="s">
         <v>67</v>
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1612,12 +1925,12 @@
       <c r="C19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="8" t="s">
         <v>68</v>
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1629,12 +1942,12 @@
       <c r="C20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="8" t="s">
         <v>69</v>
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1646,12 +1959,12 @@
       <c r="C21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="8" t="s">
         <v>51</v>
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1663,10 +1976,12 @@
       <c r="C22" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="8"/>
+      <c r="D22" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1678,10 +1993,12 @@
       <c r="C23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="8"/>
+      <c r="D23" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="360" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1693,10 +2010,12 @@
       <c r="C24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D24" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="360" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1708,10 +2027,12 @@
       <c r="C25" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="8"/>
+      <c r="D25" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -1722,11 +2043,11 @@
       <c r="C26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24</v>
       </c>
@@ -1737,11 +2058,11 @@
       <c r="C27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="390" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
@@ -1752,11 +2073,11 @@
       <c r="C28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
@@ -1767,11 +2088,11 @@
       <c r="C29" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="345" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
@@ -1782,11 +2103,11 @@
       <c r="C30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>28</v>
       </c>
@@ -1797,11 +2118,11 @@
       <c r="C31" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
@@ -1812,11 +2133,11 @@
       <c r="C32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30</v>
       </c>
@@ -1827,11 +2148,11 @@
       <c r="C33" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="B34" s="6">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -1839,11 +2160,11 @@
       <c r="C34" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="B35" s="6">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -1851,11 +2172,11 @@
       <c r="C35" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="B36" s="6">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -1863,11 +2184,11 @@
       <c r="C36" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B37" s="6">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -1875,8 +2196,11 @@
       <c r="C37" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="D37" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B38" s="6">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -1884,6 +2208,9 @@
       <c r="C38" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="D38" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="39" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="B39" s="6">
@@ -1894,13 +2221,16 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B40" s="6">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>52</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -2059,5 +2389,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <customProperties>
+    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId2"/>
+  </customProperties>
 </worksheet>
 </file>
--- a/решение С#.xlsx
+++ b/решение С#.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1035442\OneDrive - Syngenta\Рабочий стол\Geek Brains\C# Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98C9A430-18C3-49B9-A1E9-E5519D2A5E75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC905900-EF58-446F-B44F-3C9E12782D0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{C4871C03-24D8-4764-B569-A8F27D0CFEA3}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="90">
   <si>
     <t>02 Написать программу которая на вход принимает два числа и выводит, какое число большее, а какое меньшее.</t>
   </si>
@@ -1206,14 +1205,264 @@
 int userNumber1 = TakeEntNum("Enter number for calculation: ");
 PrintSquareNumber(userNumber1);</t>
   </si>
+  <si>
+    <t xml:space="preserve">/*
+37. Найдите произведение пар чисел в одномерном массиве. 
+Парой считаем первый и последний элемент, второй и предпоследний и т.д. 
+Результат запишите в новом массиве.
+[1 2 3 4 5] -&gt; 5 8 3
+[6 7 3 6] -&gt; 36 21
+*/
+using System;
+Console.Clear();
+/*
+int[] MultiplyArrayFromSide(int[] array)
+{
+    int size = array.Length / 2;
+    int[] multiarray = new int[size];
+    for (int i = 0; i &lt; size; i++)
+    {
+        multiarray[i] = array[i] * array[array.Length - i -1];
+    }
+    if (array.Length % 2 != 0)
+        multiarray[size - 1] = array[size - 1];
+    return multiarray;
+}
+*/
+int[] MultiplyArrayFromSide(int[] array)
+{
+    int size = array.Length - array.Length / 2;
+    int[] result = new int[size];
+    for (int i = 0; i &lt; size; i++)
+    {
+        result[i] = array[i] * array[array.Length - 1 - i];
+    }
+    if (array.Length % 2 != 0)
+        result[size - 1] = array[size - 1];
+    return result;
+}
+int[] GetRandomArray(int start, int end, int lenght)
+{
+    int[] array = new int[lenght];
+    for (int i = 0; i &lt; lenght; i++)
+    {
+        array[i] = new Random().Next(start, end + 1);
+    }
+    return array;
+}
+void PrintArray(int[] array)
+{
+    System.Console.Write("[");
+    for (int i = 0; i &lt; array.Length; i++)
+    {
+        System.Console.Write(array[i]);
+        if (i &lt; array.Length - 1)
+            System.Console.Write(", ");
+    }
+    System.Console.WriteLine("]");
+}
+int TakeEntNum(string message)
+{
+    System.Console.WriteLine(message);
+    int result = Convert.ToInt32(Console.ReadLine());
+    return result;
+}
+int userArraySize = TakeEntNum("Please, enter array size:");
+int userArrayStart = TakeEntNum("Please, enter array start number range:");
+int userArrayEnd = TakeEntNum("Please, enter array end number range:");
+int[] userArray = GetRandomArray(userArrayStart, userArrayEnd, userArraySize);
+int[] userMultiArray = MultiplyArrayFromSide(userArray);
+PrintArray(userArray);
+PrintArray(userMultiArray);
+</t>
+  </si>
+  <si>
+    <t>/*
+"Задача 39: Напишите программу, которая перевернёт одномерный
+массив (последний элемент будет на первом месте, а первый - на
+последнем и т.д.)
+[1 2 3 4 5] -&gt; [5 4 3 2 1]
+[6 7 3 6] -&gt; [6 3 7 6]"
+*/
+using System;
+Console.Clear();
+int[] ReverseArray (int[] array)
+{
+    int[] result = new int[array.Length];
+    for (int i = 0; i &lt; array.Length; i++)
+    {
+        result[array.Length - i -1] = array[i];
+    } 
+    return result;
+}
+int TakeEntNum(string message)
+{
+    System.Console.WriteLine(message);
+    int result = Convert.ToInt32(Console.ReadLine());
+    return result;
+}
+int[] randomArray(int start, int end, int lenght)
+{
+    int[] array = new int[lenght];
+    for (int i = 0; i &lt; lenght; i++)
+    {
+        array[i] = new Random().Next(start, end + 1);
+    }
+    return array;
+}
+void PrintArray(int[] array)
+{
+    Console.ForegroundColor = ConsoleColor.Blue;
+    System.Console.Write("[");
+    for (int i = 0; i &lt; array.Length; i++)
+    {
+        System.Console.Write(array[i]);
+        if (i &lt; array.Length - 1)
+            System.Console.Write(", ");
+    }
+    System.Console.WriteLine("]");
+}
+int userArraySize = TakeEntNum("Please, enter array size:");
+int userArrayStart = TakeEntNum("Please, enter array start number range:");
+int userArrayEnd = TakeEntNum("Please, enter array end number range:");
+int[] userArray = randomArray(userArrayStart, userArrayEnd, userArraySize);
+int[] userRevArray = ReverseArray(userArray);
+PrintArray(userArray);
+PrintArray(userRevArray);</t>
+  </si>
+  <si>
+    <t>/*
+"Задача 40: Напишите программу, которая принимает на вход три числа и
+проверяет, может ли существовать треугольник со сторонами такой длины.
+Теорема о неравенстве треугольника: каждая сторона треугольника
+меньше и не равно сумме двух других сторон."
+*/
+using System;
+Console.Clear();
+string TakeEntCoordinate(string message)
+{
+    System.Console.WriteLine(message);
+    string result = Convert.ToString(Console.ReadLine());
+    return result;
+}
+int TakeEnteredNumber(string message)
+{
+    System.Console.WriteLine(message);
+    int result = Convert.ToInt32(Console.ReadLine());
+    return result;
+}
+bool CheckTriangleCreation(int[] arr)
+{
+    if (arr[0] &lt; arr[1] + arr[2] &amp;&amp; arr[1] &lt; arr[0] + arr[2] &amp;&amp; arr[2] &lt; arr[0] + arr[1]) return true;
+    return false;
+}
+string triangleSidesInput = TakeEntCoordinate("Enter Coordinate of first point splited by space button (x y z):");
+var triangleSidesStrings = triangleSidesInput.Split(' ');
+int[] triangleSidesInts = Array.ConvertAll(triangleSidesStrings, s =&gt; int.Parse(s));
+/*int userNumber1 = TakeEnteredNumber("Enter first number: ");
+int userNumber2 = TakeEnteredNumber("Enter second number: ");
+int userNumber3 = TakeEnteredNumber("Enter third number: ");
+*/
+System.Console.WriteLine(CheckTriangleCreation(triangleSidesInts));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/*
+"Задача 41: Пользователь вводит с клавиатуры M чисел.
+Посчитайте, сколько чисел больше 0 ввёл пользователь."
+*/
+using System;
+Console.Clear();
+void PrintArray(int[] array)
+{
+    System.Console.Write("[");
+    for (int i = 0; i &lt; array.Length; i++)
+    {
+        System.Console.Write(array[i]);
+        if (i &lt; array.Length - 1)
+            System.Console.Write(", ");
+    }
+    System.Console.WriteLine("]");
+}
+int TakeEntNum(string message)
+{
+    System.Console.WriteLine(message);
+    int result = Convert.ToInt32(Console.ReadLine());
+    return result;
+}
+int[] TakeArray (string message, int size)
+{
+    int[] result = new int[size];
+    for (int i = 0; i &lt; size; i++)
+    {
+        result[i] = TakeEntNum(message);    
+    }
+    return result;
+}
+int CountPositiveNum (int[] array)
+{
+ int result = 0;
+ for (int i = 0; i &lt; array.Length; i++)
+ {
+    if (array[i] &gt; 0) result +=array[i];
+ }
+ return result;
+}
+int userArraySize = TakeEntNum ("Please, enter array size:");
+int[] userArray = TakeArray("Please, enter number for array:", userArraySize);
+int userPosNumCount = CountPositiveNum(userArray);
+PrintArray (userArray);
+System.Console.WriteLine(userPosNumCount);
+</t>
+  </si>
+  <si>
+    <t>/*
+Задача 42: Напишите программу, которая будет преобразовывать
+десятичное число в двоичное.
+45 -&gt; 101101
+3 -&gt; 11
+2 -&gt; 10
+*/
+using System;
+Console.Clear();
+string ConvertDecToBin (int a)
+{
+    string result = "";
+    int temp = 0;
+    for(int i = a; i &gt; 0.99 ; i/=2)
+    {
+        if( i % 2 == 0)
+        {
+            result= "0" + result;
+        } 
+        else result = "1" + result;
+    }
+    return result;
+}
+int TakeEnteredNumber(string message)
+{
+    System.Console.WriteLine(message);
+    int result = Convert.ToInt32(Console.ReadLine());
+    return result;
+}
+int userNumber = TakeEnteredNumber("enter number to convert");
+string userNumberinBin = ConvertDecToBin(userNumber);
+System.Console.WriteLine(userNumberinBin);</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="4"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1255,36 +1504,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1601,787 +1845,802 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C62B4D-52C8-429E-A392-6844393624AA}">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="44.5703125" customWidth="1"/>
-    <col min="4" max="4" width="188.42578125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="44.5703125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="188.42578125" style="7" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="3">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <f t="shared" ref="A3:B25" si="0">A2+1</f>
         <v>1</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="3">
         <f>B2+1</f>
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" ht="360" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" ht="360" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="3">
         <f t="shared" ref="B26:B62" si="1">B25+1</f>
         <v>24</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="3">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="3">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="3">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="3">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>28</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="3">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="3">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="3">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="B34" s="6">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="3">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="B35" s="6">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="3">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="B36" s="6">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="3">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="B37" s="6">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="3">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="B38" s="6">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="3">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="B39" s="6">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="3">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="B40" s="6">
+      <c r="D39" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="3">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="B41" s="6">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="3">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="B42" s="6">
+      <c r="D41" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="3">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="9" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B43" s="6">
+      <c r="D42" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="3">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="B44" s="6">
+      <c r="D43" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="3">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="B45" s="6">
+      <c r="D44" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="3">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="B46" s="6">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="3">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B47" s="6">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="3">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="6">
+      <c r="B48" s="3">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="6">
+      <c r="B49" s="3">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="6">
+      <c r="B50" s="3">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="6">
+      <c r="B51" s="3">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="6">
+      <c r="B52" s="3">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="6">
+      <c r="B53" s="3">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="6">
+      <c r="B54" s="3">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="6">
+      <c r="B55" s="3">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="6">
+      <c r="B56" s="3">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="6">
+      <c r="B57" s="3">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="6">
+      <c r="B58" s="3">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="6">
+      <c r="B59" s="3">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="6">
+      <c r="B60" s="3">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="6">
+      <c r="B61" s="3">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="6">
+      <c r="B62" s="3">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
@@ -2389,8 +2648,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <customProperties>
-    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId2"/>
-  </customProperties>
 </worksheet>
 </file>
--- a/решение С#.xlsx
+++ b/решение С#.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1035442\OneDrive - Syngenta\Рабочий стол\Geek Brains\C# Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC905900-EF58-446F-B44F-3C9E12782D0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA378E4A-DD04-4310-AD01-A212C95697E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{C4871C03-24D8-4764-B569-A8F27D0CFEA3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="97">
   <si>
     <t>02 Написать программу которая на вход принимает два числа и выводит, какое число большее, а какое меньшее.</t>
   </si>
@@ -1447,6 +1447,40 @@
 int userNumber = TakeEnteredNumber("enter number to convert");
 string userNumberinBin = ConvertDecToBin(userNumber);
 System.Console.WriteLine(userNumberinBin);</t>
+  </si>
+  <si>
+    <t>52. Задайте двумерный массив из целых чисел. Найдите среднее арифметическое элементов в каждом столбце.
+Например, задан массив:
+1 4 7 2
+5 9 2 3
+8 4 2 4
+Среднее арифметическое каждого столбца: 4,6; 5,6; 3,6; 3.</t>
+  </si>
+  <si>
+    <t>51. Задайте двумерный массив. Найдите сумму элементов, находящихся на главной диагонали (с индексами (0,0); (1;1) и т.д.</t>
+  </si>
+  <si>
+    <t>50. Напишите программу, которая на вход принимает позиции элемента в двумерном массиве, и возвращает значение этого элемента или же указание, что такого элемента нет.
+Например, задан массив:
+1 4 7 2
+5 9 2 3
+8 4 2 4
+1 и 2 -&gt; 2
+1 и 7 -&gt; такого числа в массиве нет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+49. Задайте двумерный массив. Найдите элементы, у которых оба индекса чётные, и замените эти элементы на их квадраты.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+48. Задайте двумерный массив размера m на n, каждый элемент в массиве находится по формуле: Aₘₙ = m+n. Выведите полученный массив на экран.</t>
+  </si>
+  <si>
+    <t>47. Задайте двумерный массив размером m×n, заполненный случайными вещественными числами.</t>
+  </si>
+  <si>
+    <t>46. Задайте двумерный массив размером m×n, заполненный случайными целыми числами.</t>
   </si>
 </sst>
 </file>
@@ -1504,7 +1538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1529,6 +1563,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1843,10 +1880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C62B4D-52C8-429E-A392-6844393624AA}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:XFD63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2281,7 +2318,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <f t="shared" ref="B26:B62" si="1">B25+1</f>
+        <f t="shared" ref="B26:B54" si="1">B25+1</f>
         <v>24</v>
       </c>
       <c r="C26" s="8" t="s">
@@ -2560,89 +2597,62 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C48" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="3">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C49" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="75" x14ac:dyDescent="0.25">
       <c r="B50" s="3">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C50" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B51" s="3">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C51" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" ht="195" x14ac:dyDescent="0.25">
       <c r="B52" s="3">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C52" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="3">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C53" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" ht="135" x14ac:dyDescent="0.25">
       <c r="B54" s="3">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="3">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="3">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="3">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="3">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="3">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="3">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="3">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="3">
-        <f t="shared" si="1"/>
-        <v>60</v>
+      <c r="C54" s="10" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/решение С#.xlsx
+++ b/решение С#.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1035442\OneDrive - Syngenta\Рабочий стол\Geek Brains\C# Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA378E4A-DD04-4310-AD01-A212C95697E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5E39A8-3410-4382-95CB-096F7FB9252D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{C4871C03-24D8-4764-B569-A8F27D0CFEA3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="105">
   <si>
     <t>02 Написать программу которая на вход принимает два числа и выводит, какое число большее, а какое меньшее.</t>
   </si>
@@ -1481,6 +1481,581 @@
   </si>
   <si>
     <t>46. Задайте двумерный массив размером m×n, заполненный случайными целыми числами.</t>
+  </si>
+  <si>
+    <t>using System;
+Console.Clear();
+int Prompt(string message)
+{
+    System.Console.Write(message);
+    int result = Convert.ToInt32(Console.ReadLine());
+    return result;
+}
+int[] Fibonacci(int number)
+{
+    int size = number;
+    if (number &lt; 2) size = 2;
+    int[] array = new int[size];
+    array[0] = 0;
+    array[1] = 1;
+    for (int i = 2; i &lt; size; i++)
+    {
+        array[i] = array[i - 1] + array[i - 2];
+    }
+    return array;
+}
+void PrintArray(int[] arrayOne)
+{
+    System.Console.Write("Number N = " + arrayOne.Length + ": ");
+    Console.ForegroundColor = ConsoleColor.Blue;
+    for (int i = 0; i &lt; arrayOne.Length; i++)
+    {
+        System.Console.Write(" " + arrayOne[i]);
+    }
+    System.Console.WriteLine();
+}
+int number = Prompt("Enter number: ");
+PrintArray(Fibonacci(number));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/*
+"Задача 45: Напишите программу, которая будет создавать копию
+заданного массива с помощью поэлементного копирования"
+*/
+int[] CopyArray (int[] array)
+{
+    int[] result = new int[array.Length];
+    for (int i = 0; i &lt; array.Length; i++)
+    {
+        result[i] = array[i];
+    } 
+    return result;
+}
+int TakeEntNum(string message)
+{
+    System.Console.WriteLine(message);
+    int result = Convert.ToInt32(Console.ReadLine());
+    return result;
+}
+int[] randomArray(int start, int end, int lenght)
+{
+    int[] array = new int[lenght];
+    for (int i = 0; i &lt; lenght; i++)
+    {
+        array[i] = new Random().Next(start, end + 1);
+    }
+    return array;
+}
+void PrintArray(int[] array)
+{
+    Console.ForegroundColor = ConsoleColor.Blue;
+    System.Console.Write("[");
+    for (int i = 0; i &lt; array.Length; i++)
+    {
+        System.Console.Write(array[i]);
+        if (i &lt; array.Length - 1)
+            System.Console.Write(", ");
+    }
+    System.Console.WriteLine("]");
+}
+int userArraySize = TakeEntNum("Please, enter array size:");
+int userArrayStart = TakeEntNum("Please, enter array start number range:");
+int userArrayEnd = TakeEntNum("Please, enter array end number range:");
+</t>
+  </si>
+  <si>
+    <t>/*Задача 46: Задайте двумерный массив размером m×n,
+заполненный случайными целыми числами.
+m = 3, n = 4.
+1 4 8 19
+5 -2 33 -2
+77 3 8 1
+*/
+using System;
+Console.Clear();
+int TakeEnteredNumber(string message)
+{
+    System.Console.WriteLine(message);
+    int result = Convert.ToInt32(Console.ReadLine());
+    return result;
+}
+int[,] GetRandom2DArray(int start, int end, int row, int column)
+{
+    int[,] array = new int[row, column];
+    for (int i = 0; i &lt; row; i++)
+    {
+        for (int j = 0; j &lt; column; j++)
+        {
+            array[i, j] = new Random().Next(start, end+1);
+        }
+    }
+    return array;
+}
+void Print2DArray(int[,] array)
+{
+    for (int i = 0; i &lt; array.GetLength(0); i++)
+    {
+        for (int j = 0; j &lt; array.GetLength(1); j++)
+        {
+        System.Console.Write(array[i, j] + "\t");
+        }
+        System.Console.WriteLine();
+    }
+}
+int userArrayRow = TakeEnteredNumber("Введите количество строк:");
+int userArrayColumn = TakeEnteredNumber("Введите количестов столбцов:");
+int userArrayStart = TakeEnteredNumber("Введите начало диапозона:");
+int userArrayEnd = TakeEnteredNumber("Введите конец диапозона:");
+int[,] user2DArray = GetRandom2DArray(userArrayStart, userArrayEnd, userArrayRow, userArrayColumn);
+Print2DArray(user2DArray);</t>
+  </si>
+  <si>
+    <t>/*Задайте двумерный массив размером m×n, заполненный случайными вещественными числами.
+Внутри класса Answer напишите метод CreateRandomMatrix, который принимал бы числа m и n (размерность массива), а также minLimitRandom и maxLimitRandom, которые указывают на минимальную и максимальную границы случайных чисел.
+Также, задайте метод PrintArray, который выводил бы массив на экран.
+Для вывода матрица используйте интерполяцию строк для форматирования числа matrix[i, j] с двумя знаками после запятой (f2) и добавления символа табуляции (\t) после каждого элемента матрицы. Таким образом, каждый элемент матрицы будет разделен символом табуляции при выводе.
+*/
+using System;
+Console.Clear();
+/*
+public class Answer {
+  public static double[, ] CreateRandomMatrix(int row, int column, int start, int end) {
+      // Введите свое решение ниже
+    double[,] array = new double[row, column];
+    for (int i = 0; i &lt; row; i++)
+    {
+        for (int j = 0; j &lt; column; j++)
+        {
+            array[i, j] = new Random().NextDouble()*(start, end+0,01);
+        }
+    }
+    return array;
+  }
+  public static void PrintArray(double[, ] matrix) {
+      // Введите свое решение ниже
+  }
+  // Не удаляйте и не меняйте метод Main! 
+  public static void Main(string[] args) {
+    int m, n, minLimitRandom, maxLimitRandom;
+    if (args.Length &gt;= 4) {
+      m = int.Parse(args[0]);
+      n = int.Parse(args[1]);
+      minLimitRandom = int.Parse(args[2]);
+      maxLimitRandom = int.Parse(args[3]);
+      double[,] array = CreateRandomMatrix(m, n, minLimitRandom, maxLimitRandom);
+        // Выберем случайные индексы трех элементов матрицы array
+        int row1 = new Random().Next(0, m);
+        int col1 = new Random().Next(0, n);
+        int row2 = new Random().Next(0, m);
+        int col2 = new Random().Next(0, n);
+        int row3 = new Random().Next(0, m);
+        int col3 = new Random().Next(0, n);
+        // Проверяем, являются ли выбранные элементы дробными числами
+        bool isFractional1 = (array[row1, col1] % 1) != 0;
+        bool isFractional2 = (array[row2, col2] % 1) != 0;
+        bool isFractional3 = (array[row3, col3] % 1) != 0;
+        // Если два из трех элементов не являются дробными числами, то бросаем исключение
+        if ((isFractional1 &amp;&amp; isFractional2) || (isFractional1 &amp;&amp; isFractional3) || (isFractional2 &amp;&amp; isFractional3))
+        {
+            Console.WriteLine("Все ок!");
+        }
+        else
+        {
+            throw new Exception("Выбранные элементы не содержат по крайней мере два дробных числа.");
+        }
+    } else {
+      m = 3;
+      n = 4;
+      minLimitRandom = -10;
+      maxLimitRandom = 10;
+      double[, ] result = CreateRandomMatrix(m, n, minLimitRandom, maxLimitRandom);
+      PrintArray(result);
+    }
+  }
+}
+*/
+int TakeEnteredNumber(string message)
+{
+    System.Console.WriteLine(message);
+    int result = Convert.ToInt32(Console.ReadLine());
+    return result;
+}
+/*
+double[,] GetRandom2DArray(int deviation, int row, int column)
+{
+    double[,] array = new double[row, column];
+    for (int i = 0; i &lt; row; i++)
+    {
+        for (int j = 0; j &lt; column; j++)
+        {
+            array[i, j] = Math.Round((new Random().NextDouble() * (2 * deviation) - deviation), 2);            
+        }
+    }
+    return array;
+}
+*/
+double[,] GetRandom2DArray(int start, int end, int row, int column)
+{
+    double[,] array = new double[row, column];
+    for (int i = 0; i &lt; row; i++)
+    {
+        for (int j = 0; j &lt; column; j++)
+        {
+            array[i, j] = Math.Round((new Random().Next(-10, 10) + new Random().NextDouble()),2);            
+        }
+    }
+    return array;
+}
+void Print2DArray(double[,] array)
+{
+    System.Console.Write($"[ ]\t");
+    int start = 0;
+    for (int i = start; i &lt; start + array.GetLength(1); i++)
+    {
+        System.Console.Write($"[{i}]\t");
+    }
+    System.Console.WriteLine();
+    for (int i = 0; i &lt; array.GetLength(0); i++)
+    {
+        System.Console.Write($"["+ i +"]\t");
+        for (int j = 0; j &lt; array.GetLength(1); j++)
+        {
+        System.Console.Write(array[i, j] + "\t");
+        }
+        System.Console.WriteLine();
+    }
+}
+int userArrayRow = TakeEnteredNumber("Введите количестов строк:");
+int userArrayColumn = TakeEnteredNumber("Введите количестов столбцов:");
+int userArrayStart = TakeEnteredNumber("Введите начало диапозона:");
+int userArrayEnd = TakeEnteredNumber("Введите начало диапозона:");
+double[,] user2DArray = GetRandom2DArray(userArrayStart, userArrayEnd, userArrayRow, userArrayColumn);
+Print2DArray(user2DArray);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/*Задача 48: Задайте двумерный массив размера m на n,
+каждый элемент в массиве находится по формуле: Aₘₙ = m+n.
+Выведите полученный массив на экран.
+m = 3, n = 4.
+0 1 2 3
+1 2 3 4
+2 3 4 5
+*/
+using System;
+Console.Clear();
+int TakeEnteredNumber(string message)
+{
+    System.Console.WriteLine(message);
+    int result = Convert.ToInt32(Console.ReadLine());
+    return result;
+}
+/*
+int[,] GetIndex2DArray(int row, int column)
+{
+    int[,] array = new int[row, column];
+    for (int i = 0; i &lt; row; i++)
+    {
+        for (int j = 0; j &lt; column; j++)
+        {
+            array[i, j] = i + j;
+        }
+    }
+    return array;
+}
+*/
+string[,] GetIndex2DArray(int row, int column)
+{
+    string[,] array = new string[row, column];
+    for (int i = 0; i &lt; row; i++)
+    {
+        for (int j = 0; j &lt; column; j++)
+        {
+            array[i, j] =($"{i} + {j} = {i + j}");
+        }
+    }
+    return array;
+}
+/*
+void Print2DArray(int[,] array)
+{
+    for (int i = 0; i &lt; array.GetLength(0); i++)
+    {
+        for (int j = 0; j &lt; array.GetLength(1); j++)
+        {
+        System.Console.Write(array[i, j] + "\t");
+        }
+        System.Console.WriteLine();
+    }
+}
+*/
+void Print2DStringArray(string[,] array)
+{
+    for (int i = 0; i &lt; array.GetLength(0); i++)
+    {
+        for (int j = 0; j &lt; array.GetLength(1); j++)
+        {
+        System.Console.Write(array[i, j] + "\t");
+        }
+        System.Console.WriteLine();
+    }
+}
+int userArrayRow = TakeEnteredNumber("Введите количестов строк:");
+int userArrayColumn = TakeEnteredNumber("Введите количестов столбцов:");
+string[,] user2DIndexArray = GetIndex2DArray(userArrayRow, userArrayColumn);
+//Print2DArray(user2DIndexArray);
+Print2DStringArray(user2DIndexArray);
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/*Задача 49: Задайте двумерный массив. Найдите элементы, у
+которых оба индекса чётные, и замените эти элементы на их
+квадраты.
+Например, изначально массив
+выглядел вот так:
+1 4 7 2
+5 9 2 3
+8 4 2 4
+Новый массив будет выглядеть
+вот так:
+1 4 7 2
+5 81 2 9
+8 4 2 4
+*/
+using System;
+Console.Clear();
+int TakeEnteredNumber(string message)
+{
+    System.Console.WriteLine(message);
+    int result = Convert.ToInt32(Console.ReadLine());
+    return result;
+}
+int[,] GetRandom2DArray(int start, int end, int row, int column)
+{
+    int[,] array = new int[row, column];
+    for (int i = 0; i &lt; row; i++)
+    {
+        for (int j = 0; j &lt; column; j++)
+        {
+            array[i, j] = new Random().Next(start, end+1);
+        }
+    }
+    return array;
+}
+int [,] ModifyEvenIndexSquare (int[,] array)
+{
+    int[,] result = array;
+    for (int i = 0; i &lt; array.GetLength(0); i++)
+    {
+        for (int j = 0; j &lt; array.GetLength(1); j++)
+        {
+            if(i%2 == 0 &amp;&amp; j%2 == 0) result [i,j] = array [i,j] * array [i,j];
+        }
+    }
+    return result;
+}
+void Print2DArray(int[,] array)
+{
+    for (int i = 0; i &lt; array.GetLength(0); i++)
+    {
+        for (int j = 0; j &lt; array.GetLength(1); j++)
+        {
+        System.Console.Write(array[i, j] + "\t");
+        }
+        System.Console.WriteLine();
+    }
+}
+int userArrayRow = TakeEnteredNumber("Введите количестов строк:");
+int userArrayColumn = TakeEnteredNumber("Введите количестов столбцов:");
+int userArrayStart = TakeEnteredNumber("Введите начало диапозона:");
+int userArrayEnd = TakeEnteredNumber("Введите конец диапозона:");
+int[,] user2DArray = GetRandom2DArray(userArrayStart, userArrayEnd, userArrayRow, userArrayColumn);
+Print2DArray(user2DArray);
+System.Console.WriteLine();
+int[,] userNewArray = ModifyEvenIndexSquare(user2DArray);
+System.Console.WriteLine();
+Print2DArray(userNewArray);
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/*Задача 50: Напишите программу, которая на вход
+принимает позиции элемента в двумерном массиве, и
+возвращает значение этого элемента или же указание,
+что такого элемента нет.
+Например, задан массив:
+1 4 7 2
+5 9 2 3
+8 4 2 4
+17 -&gt; такого числа в массиве нет
+*/
+/*
+using System;
+Console.Clear();
+int TakeEnteredNumber(string message)
+{
+    System.Console.WriteLine(message);
+    int result = Convert.ToInt32(Console.ReadLine());
+    return result;
+}
+int[,] GetRandom2DArray(int start, int end, int row, int column)
+{
+    int[,] array = new int[row, column];
+    for (int i = 0; i &lt; row; i++)
+    {
+        for (int j = 0; j &lt; column; j++)
+        {
+            array[i, j] = new Random().Next(start, end + 1);
+        }
+    }
+    return array;
+}
+void Print2DArray(int[,] array)
+{
+    for (int i = 0; i &lt; array.GetLength(0); i++)
+    {
+        for (int j = 0; j &lt; array.GetLength(1); j++)
+        {
+            System.Console.Write(array[i, j] + "\t");
+        }
+        System.Console.WriteLine();
+    }
+}
+bool CheckPosition(int row, int column, int[,] array)
+{
+    if (row &lt; array.GetLength(0) &amp;&amp; column &lt; array.GetLength(1)) return true;
+    else return false;
+}
+int FindIndex(int row, int column, int[,] array)
+{
+    int result = 0;
+    if (CheckPosition(row, column, array) == true)
+    {
+       return result = array [row, column];
+    }
+    else false;
+}
+void PtintNumberFromIndex
+int userArrayRow = TakeEnteredNumber("Введите количестов строк:");
+int userArrayColumn = TakeEnteredNumber("Введите количестов столбцов:");
+int userArrayStart = TakeEnteredNumber("Введите начало диапозона:");
+int userArrayEnd = TakeEnteredNumber("Введите конец диапозона:");
+int[,] user2DArray = GetRandom2DArray(userArrayStart, userArrayEnd, userArrayRow, userArrayColumn);
+Print2DArray(user2DArray);
+System.Console.WriteLine(FindIndex(TakeEnteredNumber("Введите строку для нахождения значения в матрице:"), TakeEnteredNumber("Введите строку для нахождения значения в матрице: "), user2DArray));
+*/
+using System;
+Console.Clear();
+int TakeEnteredNumber(string message)
+{
+    System.Console.WriteLine(message);
+    int result = Convert.ToInt32(Console.ReadLine());
+    return result;
+}
+int[,] GetIndex2DArray(int row, int column, int k)
+{
+    int[,] array = new int[row, column];
+    int num = 1;
+    for (int i = 0; i &lt; row; i++)
+    {
+        for (int j = 0; j &lt; column; j++)
+        {
+            array[i, j] = num;
+            num = num + k;
+        }
+    }
+    return array;
+}
+void Print2DArray(int[,] array)
+{
+    for (int i = 0; i &lt; array.GetLength(0); i++)
+    {
+        for (int j = 0; j &lt; array.GetLength(1); j++)
+        {
+        System.Console.Write($"{array[i, j]}\t");
+        }
+        System.Console.WriteLine();
+    }
+}
+int userArrayRow = TakeEnteredNumber("Введите количестов строк:");
+int userArrayColumn = TakeEnteredNumber("Введите количестов столбцов:");
+int numberK = TakeEnteredNumber("What number to encrese5? ");
+int[,] user2DIndexArray = GetIndex2DArray(userArrayRow, userArrayColumn, numberK);
+Print2DArray(user2DIndexArray);
+int PositionX = TakeEnteredNumber("Which row to find: ");
+int PositionY = TakeEnteredNumber("Which column to find: ");
+void FindElemnetInArray(int[,] array, int x, int y)
+{
+    if(x &lt; array.GetLength(0) + 1 &amp;&amp; y &lt; array.GetLength(1) + 1)
+    System.Console.WriteLine($"Такое число в массиве есть, это число {array[x, y]}");
+    else
+    System.Console.WriteLine("Такого числа в массиве нет!");
+}
+FindElemnetInArray(user2DIndexArray, PositionX, PositionY);
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/*
+Задача 51: Задайте двумерный массив. Найдите сумму
+элементов, находящихся на главной диагонали (с индексами
+(0,0); (1;1) и т.д.
+Например, задан массив:
+1 4 7 2
+5 9 2 3
+8 4 2 4
+Сумма элементов главной диагонали: 1+9+2 = 12
+*/
+using System;
+Console.Clear();
+int TakeEnteredNumber(string message)
+{
+    System.Console.WriteLine(message);
+    int result = Convert.ToInt32(Console.ReadLine());
+    return result;
+}
+int[,] GetRandom2DArray(int start, int end, int row, int column)
+{
+    int[,] array = new int[row, column];
+    for (int i = 0; i &lt; row; i++)
+    {
+        for (int j = 0; j &lt; column; j++)
+        {
+            array[i, j] = new Random().Next(start, end+1);
+        }
+    }
+    return array;
+}
+void Print2DArray(int[,] array)
+{
+    for (int i = 0; i &lt; array.GetLength(0); i++)
+    {
+        for (int j = 0; j &lt; array.GetLength(1); j++)
+        {
+        System.Console.Write(array[i, j] + "\t");
+        }
+        System.Console.WriteLine();
+    }
+}
+int MainDiagonalSumm (int[,] array)
+{
+    int result = 0;
+    for (int i = 0; i &lt; array.GetLength(0); i++)
+    {
+        for (int j = 0; j &lt; array.GetLength(1); j++)
+        {
+            if(i == j) result = result + array [i,j];
+        }
+    }
+    return result;        
+}
+int userArrayRow = TakeEnteredNumber("Введите количестов строк:");
+int userArrayColumn = TakeEnteredNumber("Введите количестов столбцов:");
+int userArrayStart = TakeEnteredNumber("Введите начало диапозона:");
+int userArrayEnd = TakeEnteredNumber("Введите конец диапозона:");
+int[,] user2DArray = GetRandom2DArray(userArrayStart, userArrayEnd, userArrayRow, userArrayColumn);
+Print2DArray(user2DArray);
+int userMainDiagonalSum =  MainDiagonalSumm(user2DArray);
+System.Console.WriteLine();
+System.Console.WriteLine(userMainDiagonalSum);
+</t>
   </si>
 </sst>
 </file>
@@ -1538,7 +2113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1565,6 +2140,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1882,8 +2460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C62B4D-52C8-429E-A392-6844393624AA}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:XFD63"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2574,7 +3152,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="251.25" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -2582,8 +3160,11 @@
       <c r="C46" s="9" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="339" x14ac:dyDescent="0.25">
       <c r="B47" s="3">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -2591,8 +3172,11 @@
       <c r="C47" s="9" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="366" x14ac:dyDescent="0.25">
       <c r="B48" s="3">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -2600,8 +3184,11 @@
       <c r="C48" s="9" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="409.6" x14ac:dyDescent="0.25">
       <c r="B49" s="3">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -2609,8 +3196,11 @@
       <c r="C49" s="9" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="50" spans="2:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="D49" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="409.6" x14ac:dyDescent="0.25">
       <c r="B50" s="3">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -2618,8 +3208,11 @@
       <c r="C50" s="10" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="51" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="D50" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" ht="409.6" x14ac:dyDescent="0.25">
       <c r="B51" s="3">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -2627,8 +3220,11 @@
       <c r="C51" s="10" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="52" spans="2:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="D51" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" ht="409.6" x14ac:dyDescent="0.25">
       <c r="B52" s="3">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -2636,8 +3232,11 @@
       <c r="C52" s="10" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D52" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" ht="409.6" x14ac:dyDescent="0.25">
       <c r="B53" s="3">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -2645,8 +3244,11 @@
       <c r="C53" s="9" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="54" spans="2:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="D53" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" ht="135" x14ac:dyDescent="0.25">
       <c r="B54" s="3">
         <f t="shared" si="1"/>
         <v>52</v>

--- a/решение С#.xlsx
+++ b/решение С#.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1035442\OneDrive - Syngenta\Рабочий стол\Geek Brains\C# Practice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1035442\OneDrive - Syngenta\Рабочий стол\New folder (2)\Geek Brains\C# Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5E39A8-3410-4382-95CB-096F7FB9252D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1D7083-5A1D-466E-8347-1388FE725D17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{C4871C03-24D8-4764-B569-A8F27D0CFEA3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="107">
   <si>
     <t>02 Написать программу которая на вход принимает два числа и выводит, какое число большее, а какое меньшее.</t>
   </si>
@@ -2056,6 +2056,111 @@
 System.Console.WriteLine();
 System.Console.WriteLine(userMainDiagonalSum);
 </t>
+  </si>
+  <si>
+    <t>/*"Задача 43. Напишите программу, которая найдёт точку
+пересечения двух прямых, заданных уравнениями y = k1 * x +
+b1, y = k2 * x + b2; значения b1, k1, b2 и k2 задаются
+пользователем."
+*/
+using System;
+Console.Clear();
+Console.WriteLine("введите значение b1");
+double b1 = Convert.ToInt32(Console.ReadLine());
+Console.WriteLine("введите число k1");
+double k1 = Convert.ToInt32(Console.ReadLine());
+Console.WriteLine("введите значение b2");
+double b2 = Convert.ToInt32(Console.ReadLine());
+Console.WriteLine("введите число k2");
+double k2 = Convert.ToInt32(Console.ReadLine());
+void CrossLine(double b1, double k1, double b2, double k2)
+{
+    if (k1 == k2)
+    {
+        if (b1 == b2)
+            System.Console.WriteLine("Прямые совпадают");
+        else
+            System.Console.WriteLine("Прямые параллельны");
+            return;
+    }
+    double x = (-b2 + b1) / (-k1 + k2);
+    double y = k2 * x + b2;
+    Console.WriteLine($"Две прямые пересекаются в точке с координатами X: {x}, Y: {y}");
+}
+CrossLine(b1, k1, b2, k2);</t>
+  </si>
+  <si>
+    <t>/*
+"52. Задайте двумерный массив из целых чисел. Найдите среднее арифметическое элементов в каждом столбце.
+Например, задан массив:
+1 4 7 2
+5 9 2 3
+8 4 2 4
+Среднее арифметическое каждого столбца: 4,6; 5,6; 3,6; 3."
+*/
+using System;
+Console.Clear();
+void PrintArray(int[,] matrix)
+{
+    for (int i = 0; i &lt; matrix.GetLength(0); i++)
+    {
+        for (int j = 0; j &lt; matrix.GetLength(1); j++)
+        {
+            System.Console.Write($"{matrix[i, j]}\t");
+        }
+        System.Console.WriteLine();
+    }
+}
+int[,] CreateIncreasingMatrix(int n, int m, int k)
+{
+    int[,] array = new int[n, m];
+    int result = 1;
+    for (int i = 0; i &lt; n; i++)
+    {
+        for (int j = 0; j &lt; m; j++)
+        {
+            array[i, j] = result;
+            result += k;
+        }
+    }
+    return array;
+}
+void PrintListAvr(double[] list)
+{
+    for (int i = 0; i &lt; list.Length; i++)
+    {
+        System.Console.WriteLine($"Average of column {i} is {list[i]}");
+    }
+}
+double[] FindAverageInColumns(int[,] matrix)
+{
+    double[] result = new double[matrix.GetLength(1)];
+    for (int j = 0; j &lt; matrix.GetLength(1); j++)
+    {
+        int sumColumn = 0;
+        for (int i = 0; i &lt; matrix.GetLength(0); i++)
+        {
+            sumColumn += matrix[i, j];
+        }
+        double midresult;
+        midresult = Convert.ToDouble(sumColumn) / Convert.ToDouble((matrix.GetLength(0) + 1));
+        result[j] = Math.Round(midresult, 2);
+    }
+    return result;
+}
+int TakeEnteredNumber(string message)
+{
+    System.Console.WriteLine(message);
+    int result = Convert.ToInt32(Console.ReadLine());
+    return result;
+}
+int userRow = TakeEnteredNumber("Кол-во строк:");
+int userColumn = TakeEnteredNumber("Кол-во столбцов:");
+int userIncrement = TakeEnteredNumber("Введите инкремент для матрицы: ");
+int[,] userMatrix = CreateIncreasingMatrix(userRow, userColumn, userIncrement);
+PrintArray(userMatrix);
+double[] userRowAverage = FindAverageInColumns(userMatrix);
+PrintListAvr(userRowAverage);</t>
   </si>
 </sst>
 </file>
@@ -2113,12 +2218,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2134,16 +2238,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2458,803 +2554,689 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C62B4D-52C8-429E-A392-6844393624AA}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="44.5703125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="188.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="188.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="36" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="C1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <f>A2+1</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <f t="shared" ref="A4:A25" si="0">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <f t="shared" ref="A3:B25" si="0">A2+1</f>
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <f>B2+1</f>
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="3">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="3">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="3">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="3">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="3">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="3">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="3">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="3">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="3">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="3">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="3">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="3">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="3">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="3">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="3">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="3">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="3">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
+        <f t="shared" ref="A26:A54" si="1">A25+1</f>
         <v>24</v>
       </c>
-      <c r="B26" s="3">
-        <f t="shared" ref="B26:B54" si="1">B25+1</f>
-        <v>24</v>
-      </c>
-      <c r="C26" s="8" t="s">
+      <c r="B26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>24</v>
-      </c>
-      <c r="B27" s="3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="B27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="C27" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>25</v>
-      </c>
-      <c r="B28" s="3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="B28" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="C28" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>26</v>
-      </c>
-      <c r="B29" s="3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="C29" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>27</v>
-      </c>
-      <c r="B30" s="3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="C30" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>28</v>
-      </c>
-      <c r="B31" s="3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="C31" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>29</v>
-      </c>
-      <c r="B32" s="3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="C32" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>30</v>
-      </c>
-      <c r="B33" s="3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="C33" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="C34" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="C35" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="C36" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="C37" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="C38" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="C39" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="C40" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="C41" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="C42" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="C43" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="C44" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="251.25" x14ac:dyDescent="0.25">
-      <c r="B46" s="3">
+      <c r="C45" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="C46" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="339" x14ac:dyDescent="0.25">
-      <c r="B47" s="3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="B47" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="C47" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="366" x14ac:dyDescent="0.25">
-      <c r="B48" s="3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="B48" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="C48" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="B49" s="3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="B49" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="C49" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="2:4" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="B50" s="3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="B50" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="C50" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="2:4" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="B51" s="3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="B51" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="C51" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="2:4" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="B52" s="3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="B52" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="C52" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="2:4" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="B53" s="3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="B53" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="C53" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="2:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="B54" s="3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="B54" s="8" t="s">
         <v>90</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
